--- a/generator/2017_08.xlsx
+++ b/generator/2017_08.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Family-Sponsored</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,18 +80,6 @@
     <t>22/12/2010</t>
   </si>
   <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>Other Workers</t>
-  </si>
-  <si>
     <t>01/01/2012</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
   </si>
   <si>
     <t>08/04/1994</t>
-  </si>
-  <si>
-    <t>C </t>
   </si>
   <si>
     <t>01/04/2015</t>
@@ -162,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,48 +170,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF5E5E5E"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFAAAAAA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -236,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -250,12 +208,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +516,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -611,10 +563,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -622,19 +574,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -642,19 +594,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -662,19 +614,19 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -688,13 +640,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -705,10 +657,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>9</v>
@@ -722,19 +674,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -746,16 +698,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -767,16 +719,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -817,10 +769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F17"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F17"/>
+      <selection activeCell="A4" sqref="A4:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -831,175 +783,7 @@
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="3" spans="1:6" ht="15" thickBot="1"/>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8">
-        <v>40534</v>
-      </c>
-      <c r="C4" s="8">
-        <v>40534</v>
-      </c>
-      <c r="D4" s="8">
-        <v>35096</v>
-      </c>
-      <c r="E4" s="8">
-        <v>39005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8">
-        <v>42269</v>
-      </c>
-      <c r="C5" s="8">
-        <v>42269</v>
-      </c>
-      <c r="D5" s="8">
-        <v>42248</v>
-      </c>
-      <c r="E5" s="8">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8">
-        <v>40483</v>
-      </c>
-      <c r="C6" s="8">
-        <v>40483</v>
-      </c>
-      <c r="D6" s="8">
-        <v>35247</v>
-      </c>
-      <c r="E6" s="8">
-        <v>39059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8">
-        <v>38541</v>
-      </c>
-      <c r="C7" s="8">
-        <v>38541</v>
-      </c>
-      <c r="D7" s="8">
-        <v>34797</v>
-      </c>
-      <c r="E7" s="8">
-        <v>34721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8">
-        <v>38115</v>
-      </c>
-      <c r="C8" s="8">
-        <v>38115</v>
-      </c>
-      <c r="D8" s="8">
-        <v>35688</v>
-      </c>
-      <c r="E8" s="8">
-        <v>34432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1"/>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8">
-        <v>40909</v>
-      </c>
-      <c r="D14" s="8">
-        <v>40909</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
-        <v>42095</v>
-      </c>
-      <c r="C15" s="8">
-        <v>41386</v>
-      </c>
-      <c r="D15" s="8">
-        <v>39651</v>
-      </c>
-      <c r="E15" s="8">
-        <v>42095</v>
-      </c>
-      <c r="F15" s="8">
-        <v>42095</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8">
-        <v>40909</v>
-      </c>
-      <c r="D16" s="8">
-        <v>38913</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="8">
-        <v>42156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21" thickBot="1">
-      <c r="A17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8">
-        <v>37987</v>
-      </c>
-      <c r="D17" s="8">
-        <v>38913</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="8">
-        <v>42156</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
